--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.349425979040397</v>
+        <v>0.399219</v>
       </c>
       <c r="H2">
-        <v>0.349425979040397</v>
+        <v>1.197657</v>
       </c>
       <c r="I2">
-        <v>0.006893205873185734</v>
+        <v>0.007371893048229459</v>
       </c>
       <c r="J2">
-        <v>0.006893205873185734</v>
+        <v>0.00737189304822946</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N2">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="O2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q2">
-        <v>1.249677299004528</v>
+        <v>1.768889752771</v>
       </c>
       <c r="R2">
-        <v>1.249677299004528</v>
+        <v>15.920007774939</v>
       </c>
       <c r="S2">
-        <v>0.002175943014511606</v>
+        <v>0.002631662931425824</v>
       </c>
       <c r="T2">
-        <v>0.002175943014511606</v>
+        <v>0.002631662931425824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.349425979040397</v>
+        <v>0.399219</v>
       </c>
       <c r="H3">
-        <v>0.349425979040397</v>
+        <v>1.197657</v>
       </c>
       <c r="I3">
-        <v>0.006893205873185734</v>
+        <v>0.007371893048229459</v>
       </c>
       <c r="J3">
-        <v>0.006893205873185734</v>
+        <v>0.00737189304822946</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N3">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="O3">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P3">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q3">
-        <v>2.454175911875361</v>
+        <v>2.804560715915</v>
       </c>
       <c r="R3">
-        <v>2.454175911875361</v>
+        <v>25.241046443235</v>
       </c>
       <c r="S3">
-        <v>0.004273220723527355</v>
+        <v>0.004172480768484656</v>
       </c>
       <c r="T3">
-        <v>0.004273220723527355</v>
+        <v>0.004172480768484656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.349425979040397</v>
+        <v>0.399219</v>
       </c>
       <c r="H4">
-        <v>0.349425979040397</v>
+        <v>1.197657</v>
       </c>
       <c r="I4">
-        <v>0.006893205873185734</v>
+        <v>0.007371893048229459</v>
       </c>
       <c r="J4">
-        <v>0.006893205873185734</v>
+        <v>0.00737189304822946</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7298260400073791</v>
+        <v>0.950574</v>
       </c>
       <c r="N4">
-        <v>0.7298260400073791</v>
+        <v>2.851722</v>
       </c>
       <c r="O4">
-        <v>0.06441736157541413</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P4">
-        <v>0.06441736157541413</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q4">
-        <v>0.2550201785587544</v>
+        <v>0.379487201706</v>
       </c>
       <c r="R4">
-        <v>0.2550201785587544</v>
+        <v>3.415384815354</v>
       </c>
       <c r="S4">
-        <v>0.0004440421351467737</v>
+        <v>0.0005645814840160273</v>
       </c>
       <c r="T4">
-        <v>0.0004440421351467737</v>
+        <v>0.0005645814840160273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.981684727982809</v>
+        <v>0.399219</v>
       </c>
       <c r="H5">
-        <v>0.981684727982809</v>
+        <v>1.197657</v>
       </c>
       <c r="I5">
-        <v>0.01936591821573036</v>
+        <v>0.007371893048229459</v>
       </c>
       <c r="J5">
-        <v>0.01936591821573036</v>
+        <v>0.00737189304822946</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.57637203288784</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N5">
-        <v>3.57637203288784</v>
+        <v>0.016001</v>
       </c>
       <c r="O5">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P5">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q5">
-        <v>3.510869806270825</v>
+        <v>0.002129301073</v>
       </c>
       <c r="R5">
-        <v>3.510869806270825</v>
+        <v>0.019163709657</v>
       </c>
       <c r="S5">
-        <v>0.006113140277014052</v>
+        <v>3.167864302951148E-06</v>
       </c>
       <c r="T5">
-        <v>0.006113140277014052</v>
+        <v>3.167864302951148E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.981684727982809</v>
+        <v>1.033202</v>
       </c>
       <c r="H6">
-        <v>0.981684727982809</v>
+        <v>3.099606</v>
       </c>
       <c r="I6">
-        <v>0.01936591821573036</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="J6">
-        <v>0.01936591821573036</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.02345005547408</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N6">
-        <v>7.02345005547408</v>
+        <v>13.292627</v>
       </c>
       <c r="O6">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P6">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q6">
-        <v>6.894813657208918</v>
+        <v>4.577989600551333</v>
       </c>
       <c r="R6">
-        <v>6.894813657208918</v>
+        <v>41.201906404962</v>
       </c>
       <c r="S6">
-        <v>0.01200527658277371</v>
+        <v>0.006810896786162542</v>
       </c>
       <c r="T6">
-        <v>0.01200527658277371</v>
+        <v>0.006810896786162541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.981684727982809</v>
+        <v>1.033202</v>
       </c>
       <c r="H7">
-        <v>0.981684727982809</v>
+        <v>3.099606</v>
       </c>
       <c r="I7">
-        <v>0.01936591821573036</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="J7">
-        <v>0.01936591821573036</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7298260400073791</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N7">
-        <v>0.7298260400073791</v>
+        <v>21.075355</v>
       </c>
       <c r="O7">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P7">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q7">
-        <v>0.7164590775594146</v>
+        <v>7.258366312236666</v>
       </c>
       <c r="R7">
-        <v>0.7164590775594146</v>
+        <v>65.32529681012998</v>
       </c>
       <c r="S7">
-        <v>0.001247501355942601</v>
+        <v>0.01079862299880488</v>
       </c>
       <c r="T7">
-        <v>0.001247501355942601</v>
+        <v>0.01079862299880487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.41772404874742</v>
+        <v>1.033202</v>
       </c>
       <c r="H8">
-        <v>7.41772404874742</v>
+        <v>3.099606</v>
       </c>
       <c r="I8">
-        <v>0.1463311317576231</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="J8">
-        <v>0.1463311317576231</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57637203288784</v>
+        <v>0.950574</v>
       </c>
       <c r="N8">
-        <v>3.57637203288784</v>
+        <v>2.851722</v>
       </c>
       <c r="O8">
-        <v>0.3156648814125699</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P8">
-        <v>0.3156648814125699</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q8">
-        <v>26.52854083561983</v>
+        <v>0.982134957948</v>
       </c>
       <c r="R8">
-        <v>26.52854083561983</v>
+        <v>8.839214621531999</v>
       </c>
       <c r="S8">
-        <v>0.04619159935323724</v>
+        <v>0.00146116973001868</v>
       </c>
       <c r="T8">
-        <v>0.04619159935323724</v>
+        <v>0.00146116973001868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.41772404874742</v>
+        <v>1.033202</v>
       </c>
       <c r="H9">
-        <v>7.41772404874742</v>
+        <v>3.099606</v>
       </c>
       <c r="I9">
-        <v>0.1463311317576231</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="J9">
-        <v>0.1463311317576231</v>
+        <v>0.0190788881321199</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.02345005547408</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N9">
-        <v>7.02345005547408</v>
+        <v>0.016001</v>
       </c>
       <c r="O9">
-        <v>0.6199177570120159</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P9">
-        <v>0.6199177570120159</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q9">
-        <v>52.09801438166649</v>
+        <v>0.005510755067333333</v>
       </c>
       <c r="R9">
-        <v>52.09801438166649</v>
+        <v>0.049596795606</v>
       </c>
       <c r="S9">
-        <v>0.09071326698021547</v>
+        <v>8.198617133798071E-06</v>
       </c>
       <c r="T9">
-        <v>0.09071326698021547</v>
+        <v>8.198617133798071E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,122 +1030,122 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.41772404874742</v>
+        <v>9.607736666666668</v>
       </c>
       <c r="H10">
-        <v>7.41772404874742</v>
+        <v>28.82321</v>
       </c>
       <c r="I10">
-        <v>0.1463311317576231</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="J10">
-        <v>0.1463311317576231</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7298260400073791</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N10">
-        <v>0.7298260400073791</v>
+        <v>13.292627</v>
       </c>
       <c r="O10">
-        <v>0.06441736157541413</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P10">
-        <v>0.06441736157541413</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q10">
-        <v>5.413648168364833</v>
+        <v>42.57068660807445</v>
       </c>
       <c r="R10">
-        <v>5.413648168364833</v>
+        <v>383.1361794726701</v>
       </c>
       <c r="S10">
-        <v>0.00942626542417037</v>
+        <v>0.06333447165732937</v>
       </c>
       <c r="T10">
-        <v>0.00942626542417037</v>
+        <v>0.06333447165732937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.0063225121114</v>
+        <v>9.607736666666668</v>
       </c>
       <c r="H11">
-        <v>17.0063225121114</v>
+        <v>28.82321</v>
       </c>
       <c r="I11">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="J11">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.57637203288784</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N11">
-        <v>3.57637203288784</v>
+        <v>21.075355</v>
       </c>
       <c r="O11">
-        <v>0.3156648814125699</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P11">
-        <v>0.3156648814125699</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q11">
-        <v>60.82093621458608</v>
+        <v>67.49548699883889</v>
       </c>
       <c r="R11">
-        <v>60.82093621458608</v>
+        <v>607.45938298955</v>
       </c>
       <c r="S11">
-        <v>0.1059016526887434</v>
+        <v>0.1004163040094072</v>
       </c>
       <c r="T11">
-        <v>0.1059016526887434</v>
+        <v>0.1004163040094072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.0063225121114</v>
+        <v>9.607736666666668</v>
       </c>
       <c r="H12">
-        <v>17.0063225121114</v>
+        <v>28.82321</v>
       </c>
       <c r="I12">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="J12">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.02345005547408</v>
+        <v>0.950574</v>
       </c>
       <c r="N12">
-        <v>7.02345005547408</v>
+        <v>2.851722</v>
       </c>
       <c r="O12">
-        <v>0.6199177570120159</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P12">
-        <v>0.6199177570120159</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q12">
-        <v>119.4430567910989</v>
+        <v>9.132864674180002</v>
       </c>
       <c r="R12">
-        <v>119.4430567910989</v>
+        <v>82.19578206762002</v>
       </c>
       <c r="S12">
-        <v>0.2079747189642779</v>
+        <v>0.01358740497146145</v>
       </c>
       <c r="T12">
-        <v>0.2079747189642779</v>
+        <v>0.01358740497146145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.0063225121114</v>
+        <v>9.607736666666668</v>
       </c>
       <c r="H13">
-        <v>17.0063225121114</v>
+        <v>28.82321</v>
       </c>
       <c r="I13">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="J13">
-        <v>0.335487597526984</v>
+        <v>0.1774144195096408</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.7298260400073791</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N13">
-        <v>0.7298260400073791</v>
+        <v>0.016001</v>
       </c>
       <c r="O13">
-        <v>0.06441736157541413</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P13">
-        <v>0.06441736157541413</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q13">
-        <v>12.41165701410261</v>
+        <v>0.05124446480111112</v>
       </c>
       <c r="R13">
-        <v>12.41165701410261</v>
+        <v>0.4612001832100001</v>
       </c>
       <c r="S13">
-        <v>0.02161122587396274</v>
+        <v>7.623887144271237E-05</v>
       </c>
       <c r="T13">
-        <v>0.02161122587396274</v>
+        <v>7.623887144271237E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.3786203524678</v>
+        <v>17.52241133333333</v>
       </c>
       <c r="H14">
-        <v>24.3786203524678</v>
+        <v>52.56723400000001</v>
       </c>
       <c r="I14">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312652</v>
       </c>
       <c r="J14">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312653</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N14">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="O14">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P14">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q14">
-        <v>87.18701602895614</v>
+        <v>77.63962599819088</v>
       </c>
       <c r="R14">
-        <v>87.18701602895614</v>
+        <v>698.7566339837181</v>
       </c>
       <c r="S14">
-        <v>0.1518103742745758</v>
+        <v>0.1155082307583784</v>
       </c>
       <c r="T14">
-        <v>0.1518103742745758</v>
+        <v>0.1155082307583784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.3786203524678</v>
+        <v>17.52241133333333</v>
       </c>
       <c r="H15">
-        <v>24.3786203524678</v>
+        <v>52.56723400000001</v>
       </c>
       <c r="I15">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312652</v>
       </c>
       <c r="J15">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312653</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N15">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="O15">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P15">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q15">
-        <v>171.2220224669215</v>
+        <v>123.0970131020078</v>
       </c>
       <c r="R15">
-        <v>171.2220224669215</v>
+        <v>1107.87311791807</v>
       </c>
       <c r="S15">
-        <v>0.2981324570865049</v>
+        <v>0.1831373865116914</v>
       </c>
       <c r="T15">
-        <v>0.2981324570865049</v>
+        <v>0.1831373865116914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,119 +1405,119 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.3786203524678</v>
+        <v>17.52241133333333</v>
       </c>
       <c r="H16">
-        <v>24.3786203524678</v>
+        <v>52.56723400000001</v>
       </c>
       <c r="I16">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312652</v>
       </c>
       <c r="J16">
-        <v>0.4809225961254829</v>
+        <v>0.3235651166312653</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7298260400073791</v>
+        <v>0.950574</v>
       </c>
       <c r="N16">
-        <v>0.7298260400073791</v>
+        <v>2.851722</v>
       </c>
       <c r="O16">
-        <v>0.06441736157541413</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P16">
-        <v>0.06441736157541413</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q16">
-        <v>17.79215195268487</v>
+        <v>16.656348630772</v>
       </c>
       <c r="R16">
-        <v>17.79215195268487</v>
+        <v>149.907137676948</v>
       </c>
       <c r="S16">
-        <v>0.03097976476440209</v>
+        <v>0.0247804563262585</v>
       </c>
       <c r="T16">
-        <v>0.03097976476440209</v>
+        <v>0.0247804563262585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.557582172000004</v>
+        <v>17.52241133333333</v>
       </c>
       <c r="H17">
-        <v>0.557582172000004</v>
+        <v>52.56723400000001</v>
       </c>
       <c r="I17">
-        <v>0.01099955050099391</v>
+        <v>0.3235651166312652</v>
       </c>
       <c r="J17">
-        <v>0.01099955050099391</v>
+        <v>0.3235651166312653</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>3.57637203288784</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N17">
-        <v>3.57637203288784</v>
+        <v>0.016001</v>
       </c>
       <c r="O17">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P17">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q17">
-        <v>1.994121285977672</v>
+        <v>0.09345870124822224</v>
       </c>
       <c r="R17">
-        <v>1.994121285977672</v>
+        <v>0.8411283112340001</v>
       </c>
       <c r="S17">
-        <v>0.003472171804487816</v>
+        <v>0.0001390430349369476</v>
       </c>
       <c r="T17">
-        <v>0.003472171804487816</v>
+        <v>0.0001390430349369476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.557582172000004</v>
+        <v>25.01210333333333</v>
       </c>
       <c r="H18">
-        <v>0.557582172000004</v>
+        <v>75.03631</v>
       </c>
       <c r="I18">
-        <v>0.01099955050099391</v>
+        <v>0.4618681743218556</v>
       </c>
       <c r="J18">
-        <v>0.01099955050099391</v>
+        <v>0.4618681743218557</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.02345005547408</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N18">
-        <v>7.02345005547408</v>
+        <v>13.292627</v>
       </c>
       <c r="O18">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P18">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q18">
-        <v>3.916150536864786</v>
+        <v>110.8255200318189</v>
       </c>
       <c r="R18">
-        <v>3.916150536864786</v>
+        <v>997.4296802863699</v>
       </c>
       <c r="S18">
-        <v>0.00681881667471654</v>
+        <v>0.1648804921091572</v>
       </c>
       <c r="T18">
-        <v>0.00681881667471654</v>
+        <v>0.1648804921091572</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>25.01210333333333</v>
+      </c>
+      <c r="H19">
+        <v>75.03631</v>
+      </c>
+      <c r="I19">
+        <v>0.4618681743218556</v>
+      </c>
+      <c r="J19">
+        <v>0.4618681743218557</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.025118333333332</v>
+      </c>
+      <c r="N19">
+        <v>21.075355</v>
+      </c>
+      <c r="O19">
+        <v>0.5659985489733577</v>
+      </c>
+      <c r="P19">
+        <v>0.5659985489733576</v>
+      </c>
+      <c r="Q19">
+        <v>175.7129856822278</v>
+      </c>
+      <c r="R19">
+        <v>1581.41687114005</v>
+      </c>
+      <c r="S19">
+        <v>0.2614167164831441</v>
+      </c>
+      <c r="T19">
+        <v>0.2614167164831441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>25.01210333333333</v>
+      </c>
+      <c r="H20">
+        <v>75.03631</v>
+      </c>
+      <c r="I20">
+        <v>0.4618681743218556</v>
+      </c>
+      <c r="J20">
+        <v>0.4618681743218557</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.950574</v>
+      </c>
+      <c r="N20">
+        <v>2.851722</v>
+      </c>
+      <c r="O20">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="P20">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="Q20">
+        <v>23.77585511398</v>
+      </c>
+      <c r="R20">
+        <v>213.98269602582</v>
+      </c>
+      <c r="S20">
+        <v>0.03537249083409245</v>
+      </c>
+      <c r="T20">
+        <v>0.03537249083409246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>25.01210333333333</v>
+      </c>
+      <c r="H21">
+        <v>75.03631</v>
+      </c>
+      <c r="I21">
+        <v>0.4618681743218556</v>
+      </c>
+      <c r="J21">
+        <v>0.4618681743218557</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.016001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="P21">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="Q21">
+        <v>0.1334062218122222</v>
+      </c>
+      <c r="R21">
+        <v>1.20065599631</v>
+      </c>
+      <c r="S21">
+        <v>0.0001984748954618695</v>
+      </c>
+      <c r="T21">
+        <v>0.0001984748954618695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5795316666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.738595</v>
+      </c>
+      <c r="I22">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="J22">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.430875666666666</v>
+      </c>
+      <c r="N22">
+        <v>13.292627</v>
+      </c>
+      <c r="O22">
+        <v>0.3569860433688579</v>
+      </c>
+      <c r="P22">
+        <v>0.3569860433688579</v>
+      </c>
+      <c r="Q22">
+        <v>2.56783275989611</v>
+      </c>
+      <c r="R22">
+        <v>23.11049483906499</v>
+      </c>
+      <c r="S22">
+        <v>0.003820289126404538</v>
+      </c>
+      <c r="T22">
+        <v>0.003820289126404537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5795316666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.738595</v>
+      </c>
+      <c r="I23">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="J23">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.025118333333332</v>
+      </c>
+      <c r="N23">
+        <v>21.075355</v>
+      </c>
+      <c r="O23">
+        <v>0.5659985489733577</v>
+      </c>
+      <c r="P23">
+        <v>0.5659985489733576</v>
+      </c>
+      <c r="Q23">
+        <v>4.071278536247221</v>
+      </c>
+      <c r="R23">
+        <v>36.64150682622499</v>
+      </c>
+      <c r="S23">
+        <v>0.006057038201825381</v>
+      </c>
+      <c r="T23">
+        <v>0.006057038201825379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.557582172000004</v>
-      </c>
-      <c r="H19">
-        <v>0.557582172000004</v>
-      </c>
-      <c r="I19">
-        <v>0.01099955050099391</v>
-      </c>
-      <c r="J19">
-        <v>0.01099955050099391</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="N19">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="O19">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="P19">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="Q19">
-        <v>0.4069379885694763</v>
-      </c>
-      <c r="R19">
-        <v>0.4069379885694763</v>
-      </c>
-      <c r="S19">
-        <v>0.0007085620217895522</v>
-      </c>
-      <c r="T19">
-        <v>0.0007085620217895522</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5795316666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.738595</v>
+      </c>
+      <c r="I24">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="J24">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.950574</v>
+      </c>
+      <c r="N24">
+        <v>2.851722</v>
+      </c>
+      <c r="O24">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="P24">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="Q24">
+        <v>0.5508877345099999</v>
+      </c>
+      <c r="R24">
+        <v>4.957989610589999</v>
+      </c>
+      <c r="S24">
+        <v>0.0008195823555515853</v>
+      </c>
+      <c r="T24">
+        <v>0.0008195823555515852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5795316666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.738595</v>
+      </c>
+      <c r="I25">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="J25">
+        <v>0.0107015083568889</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.016001</v>
+      </c>
+      <c r="O25">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="P25">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="Q25">
+        <v>0.003091028732777777</v>
+      </c>
+      <c r="R25">
+        <v>0.027819258595</v>
+      </c>
+      <c r="S25">
+        <v>4.598673107399991E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.598673107399991E-06</v>
       </c>
     </row>
   </sheetData>
